--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C562F-222C-4276-A164-B8580763F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD154ADC-AADE-47D6-8E72-A70B46C1AFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Store Inspection Form" sheetId="8" r:id="rId1"/>
@@ -19,11 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Pre-Store Inspection Form'!$A$1:$V$35</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -235,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -751,7 +746,132 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -762,8 +882,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -773,126 +917,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -901,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -927,9 +959,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,68 +968,65 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1011,257 +1037,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1272,6 +1112,216 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1317,53 +1367,11 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,8 +1682,8 @@
   </sheetPr>
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,89 +1715,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:32" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="33"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="50" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="50" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="59"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="54"/>
       <c r="V3" s="118"/>
       <c r="W3" s="6"/>
     </row>
@@ -1797,32 +1805,32 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="58" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="53" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="53" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="114"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="116"/>
       <c r="V4" s="117"/>
       <c r="W4" s="6"/>
     </row>
@@ -1830,55 +1838,55 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="80" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="83"/>
-    </row>
-    <row r="6" spans="1:32" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="60"/>
+    </row>
+    <row r="6" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="94"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="123"/>
       <c r="W6" s="8"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
@@ -1891,64 +1899,64 @@
       <c r="AF6" s="6"/>
     </row>
     <row r="7" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="87" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="59"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="54"/>
       <c r="V7" s="118"/>
     </row>
     <row r="8" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="141"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="119" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="119"/>
       <c r="N8" s="119"/>
       <c r="O8" s="119"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="149"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="126"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -1956,801 +1964,800 @@
       <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="88" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="151"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="97"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="88" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="150"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="151"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="97"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="110" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="154"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="69"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="132"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="138"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="126"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="132"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="125"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="126"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="132"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="126"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="132"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="126"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="132"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="126"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="132"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="126"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="132"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="126"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="132"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="126"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="132"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="130"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="136"/>
     </row>
     <row r="22" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="140"/>
+      <c r="C22" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="102" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="104"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="93"/>
     </row>
     <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="96"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="95"/>
     </row>
     <row r="24" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="108"/>
-    </row>
-    <row r="25" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105" t="s">
+      <c r="A24" s="142"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="89"/>
+    </row>
+    <row r="25" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="62" t="s">
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="62" t="s">
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="18"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="137" t="s">
+      <c r="N25" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="26"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="19" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="20" t="s">
+      <c r="M26" s="22"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S26" s="76" t="s">
+      <c r="S26" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="77"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="86"/>
     </row>
     <row r="27" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="28"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="26"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="19"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="78" t="s">
+      <c r="N28" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="25"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="28"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="94"/>
       <c r="K29" s="95"/>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="12" t="s">
+      <c r="M29" s="11"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S29" s="78" t="s">
+      <c r="S29" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="79"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="88"/>
     </row>
     <row r="30" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="31"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
       <c r="V30" s="27"/>
     </row>
-    <row r="31" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="113"/>
-    </row>
-    <row r="32" spans="1:22" s="10" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="31" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="104"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="101"/>
+    </row>
+    <row r="32" spans="1:22" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="71" t="s">
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="71" t="s">
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="84" t="s">
+      <c r="J32" s="63"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="74" t="s">
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="75"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="84"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120" t="s">
+      <c r="A33" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129"/>
+      <c r="V34" s="129"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="77">
     <mergeCell ref="A33:V33"/>
     <mergeCell ref="A34:V34"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="A20:V20"/>
     <mergeCell ref="A21:V21"/>
     <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="A12:V12"/>
     <mergeCell ref="A22:B24"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="A25:A28"/>
     <mergeCell ref="N25:P27"/>
+    <mergeCell ref="I28:K31"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="P7:V7"/>
+    <mergeCell ref="A6:V6"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="B25:D28"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="L22:V24"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L9:O9"/>
     <mergeCell ref="P9:V9"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="I25:K28"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="N28:P30"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E25:H28"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="A12:V12"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A17:V17"/>
     <mergeCell ref="C10:K10"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="N28:P30"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:D31"/>
+    <mergeCell ref="E28:H31"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:H27"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="I25:K27"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C9:K9"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.42857142857142855" bottom="0" header="0.15" footer="0.31496062992125984"/>
+  <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.42857142857142855" bottom="0" header="0.20357142857142857" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;10FQP-QC02-03AC&amp;11

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773BDBA2-8A01-4CE2-B179-FC42026E7456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751DC7D1-04D1-42D4-B0F4-7C77E63C919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -933,18 +933,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,12 +945,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -981,7 +966,277 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -990,338 +1245,92 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,7 +1642,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:O12"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,202 +1674,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="132" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="132"/>
-      <c r="V3" s="133"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="129" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="130"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="76" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="76" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="77"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="68"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="106"/>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="79" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="79" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="65"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="130"/>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="139"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="104"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="73"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="110"/>
       <c r="W7" s="4"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1873,64 +1882,64 @@
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="124" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="66" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66" t="s">
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="68"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="106"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="69" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="86"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="99"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -1938,692 +1947,692 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="116" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="115"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="63"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="116" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="115"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="63"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="116" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="115"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="63"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="134"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="120"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="67"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="33"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="70"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="33"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="70"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="33"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="70"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="70"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="33"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="70"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="33"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="70"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="33"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="70"/>
     </row>
     <row r="22" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="37"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="118"/>
     </row>
     <row r="23" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="105" t="s">
+      <c r="B23" s="120"/>
+      <c r="C23" s="54" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105" t="s">
+      <c r="F23" s="54"/>
+      <c r="G23" s="54" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="112" t="s">
+      <c r="J23" s="54"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="113"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="57"/>
     </row>
     <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="54"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="93"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="61"/>
     </row>
     <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="50" t="s">
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="50" t="s">
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="44" t="s">
+      <c r="N26" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="44"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="15"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="12"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="19" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="20" t="s">
+      <c r="M27" s="15"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="46" t="s">
+      <c r="S27" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="47"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="88"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="24"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="19"/>
     </row>
     <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="41" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="21"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="14" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="13" t="s">
+      <c r="M30" s="11"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="41" t="s">
+      <c r="S30" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="92"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="89"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="25"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="20"/>
     </row>
     <row r="32" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="96"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="95"/>
     </row>
     <row r="33" spans="1:24" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="58" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="58" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="61" t="s">
+      <c r="J33" s="60"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="89" t="s">
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="91"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="87"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
@@ -2653,68 +2662,6 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="L23:V25"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="J23:K25"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="E29:H32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:H28"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="N29:P31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="I26:K28"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A34:V34"/>
@@ -2731,6 +2678,68 @@
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="L9:O9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="N29:P31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="I26:K28"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="E29:H32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:H28"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="L23:V25"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="J23:K25"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="P9:V9"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751DC7D1-04D1-42D4-B0F4-7C77E63C919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF34B0-4CD8-4136-BEEE-CE66EC819F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>QA/Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Production Instruction (PI) No. </t>
-  </si>
-  <si>
     <t>Palletized Finished Goods Status</t>
   </si>
   <si>
@@ -159,6 +156,10 @@
   </si>
   <si>
     <t>Std. Packing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production Instruction
+(PI) No. </t>
   </si>
 </sst>
 </file>
@@ -901,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -921,9 +922,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -975,6 +973,312 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -990,15 +1294,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,328 +1303,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1674,202 +1669,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="126"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="135"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="75"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="125"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="78"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-    </row>
-    <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-    </row>
-    <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="86"/>
+    </row>
+    <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="104"/>
-    </row>
-    <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="110"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1882,64 +1877,64 @@
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="53" t="s">
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53" t="s">
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="106"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="70"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="131" t="s">
+      <c r="B9" s="135"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="99"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="138"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -1947,692 +1942,692 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="52" t="s">
+      <c r="B10" s="125"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="63"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="115"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="52" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="63"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="115"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="52" t="s">
+      <c r="B12" s="125"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="63"/>
-    </row>
-    <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="115"/>
+    </row>
+    <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="134"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="141"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="67"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="120"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="70"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="70"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="70"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="70"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="70"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="35"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="70"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="35"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="70"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="118"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39"/>
     </row>
     <row r="23" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="113"/>
+    </row>
+    <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="56"/>
+    </row>
+    <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="96"/>
+    </row>
+    <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="57"/>
-    </row>
-    <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="59"/>
-    </row>
-    <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="122"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="61"/>
-    </row>
-    <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="78"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="123" t="s">
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="49"/>
+    </row>
+    <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="105"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
+    </row>
+    <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="103"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="123"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="141" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="142" t="s">
+      <c r="O29" s="43"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="T27" s="142"/>
-      <c r="U27" s="142"/>
-      <c r="V27" s="88"/>
-    </row>
-    <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="19"/>
-    </row>
-    <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="135" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="135"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="16"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S30" s="135" t="s">
-        <v>42</v>
-      </c>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="89"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="95"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="20"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="19"/>
     </row>
     <row r="32" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="95"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="99"/>
     </row>
     <row r="33" spans="1:24" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="90" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="90" t="s">
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="60"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="128" t="s">
+      <c r="J33" s="61"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="85" t="s">
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="87"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="94"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
@@ -2662,6 +2657,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="L23:V25"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="J23:K25"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="E29:H32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:H28"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="N29:P31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="I26:K28"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A34:V34"/>
@@ -2678,68 +2735,6 @@
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="L9:O9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="N29:P31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="I26:K28"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="E29:H32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:H28"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="L23:V25"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="J23:K25"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="P9:V9"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF34B0-4CD8-4136-BEEE-CE66EC819F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C754F347-B71F-498F-B650-A023480C07A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -898,11 +898,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -988,7 +1001,280 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -997,335 +1283,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1669,202 +1709,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="126" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="126"/>
+      <c r="U3" s="30"/>
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="134" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="74" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="74" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="75"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="114"/>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="77" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="77" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="67"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="138"/>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="87"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="113"/>
       <c r="O6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="86"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="91"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="118"/>
       <c r="W7" s="4"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1877,64 +1917,64 @@
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="128" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="68" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="70"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="114"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="71" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="138"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="60"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -1942,438 +1982,438 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="116" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="115"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="71"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="116" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="115"/>
-    </row>
-    <row r="12" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="124" t="s">
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="71"/>
+    </row>
+    <row r="12" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="116" t="s">
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="115"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="150"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="140"/>
-      <c r="T13" s="140"/>
-      <c r="U13" s="140"/>
-      <c r="V13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="142"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="120"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="75"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="78"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="78"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="78"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="78"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="78"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="78"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="78"/>
     </row>
     <row r="22" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="39"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="126"/>
     </row>
     <row r="23" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="109" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="61" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109" t="s">
+      <c r="F23" s="61"/>
+      <c r="G23" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="112" t="s">
+      <c r="J23" s="61"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="113"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="65"/>
     </row>
     <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="110"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="10"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="10"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="56"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="67"/>
     </row>
     <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="96"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="69"/>
     </row>
     <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="52" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="52" t="s">
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="106"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="46" t="s">
+      <c r="N26" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="132"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
@@ -2382,52 +2422,52 @@
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="56"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="14"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="97"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="48" t="s">
+      <c r="S27" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="49"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="97"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="107"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="134"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="16"/>
       <c r="S28" s="17"/>
@@ -2436,24 +2476,24 @@
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="106"/>
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="43" t="s">
+      <c r="N29" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="43"/>
-      <c r="P29" s="95"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="99"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="28"/>
       <c r="S29" s="27"/>
@@ -2462,52 +2502,52 @@
       <c r="V29" s="15"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="56"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
       <c r="L30" s="26" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="10"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="95"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="99"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="43" t="s">
+      <c r="S30" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="95"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="99"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="56"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="97"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="102"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
@@ -2516,118 +2556,118 @@
       <c r="V31" s="19"/>
     </row>
     <row r="32" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="105"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="99"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="105"/>
     </row>
     <row r="33" spans="1:24" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="60" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="60" t="s">
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="61"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="63" t="s">
+      <c r="J33" s="68"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="92" t="s">
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="95"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="122"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
@@ -2657,6 +2697,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A34:V34"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A21:V21"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="A20:V20"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="N26:P28"/>
+    <mergeCell ref="I29:K32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="N29:P31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="I26:K28"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="E29:H32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:H28"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="L23:V25"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="J23:K25"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A16:V16"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="A3:S3"/>
     <mergeCell ref="C8:K8"/>
@@ -2673,68 +2775,6 @@
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="P9:V9"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="L23:V25"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="J23:K25"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="E29:H32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:H28"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="N29:P31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="I26:K28"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A34:V34"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A20:V20"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="N26:P28"/>
-    <mergeCell ref="I29:K32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="L9:O9"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C754F347-B71F-498F-B650-A023480C07A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16EF943-EE50-404E-A508-AD1F4AD09131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Store Inspection Form" sheetId="8" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Pre-Store Inspection Form'!$A$1:$V$36</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -915,457 +920,427 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,1029 +1649,1067 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="P9" sqref="P9:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="1" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="30" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="21"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="41" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="41" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="3"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="55"/>
     </row>
     <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="49" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="44" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="44" t="s">
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="3"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="55"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="23" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="112"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="72"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="58" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58" t="s">
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="114"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="139" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="60"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="89"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="57" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="71"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="96"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="57" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="71"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="96"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="150"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="104"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="142"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="33"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="75"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="108"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="78"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="111"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="78"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="111"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="78"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="111"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="78"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="111"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="78"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="111"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="78"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="111"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="78"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="111"/>
     </row>
     <row r="22" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="126"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="115"/>
     </row>
     <row r="23" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="61" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="64" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="65"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="37"/>
     </row>
     <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="67"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="38"/>
     </row>
     <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="130"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="69"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="117"/>
     </row>
     <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="85" t="s">
+      <c r="C26" s="120"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="85" t="s">
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="86"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="131" t="s">
+      <c r="J26" s="120"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="28" t="s">
+      <c r="A27" s="123"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="14" t="s">
+      <c r="M27" s="5"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="96" t="s">
+      <c r="S27" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="97"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="134"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="31"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="16"/>
+      <c r="R28" s="6"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="98" t="s">
+      <c r="A29" s="118"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="98"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="15"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="13"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="26" t="s">
+      <c r="A30" s="123"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="10" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="98" t="s">
+      <c r="S30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="99"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="32"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="19"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="105"/>
-    </row>
-    <row r="33" spans="1:24" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A32" s="126"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="130"/>
+    </row>
+    <row r="33" spans="1:24" s="139" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="100" t="s">
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="100" t="s">
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="136" t="s">
+      <c r="J33" s="116"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="93" t="s">
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="95"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="138"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="140"/>
+      <c r="X34" s="140"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="140"/>
+      <c r="X35" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="L23:V25"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="J23:K25"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="E29:H32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:H28"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="N29:P31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="I26:K28"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A34:V34"/>
@@ -2713,68 +2726,6 @@
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="L9:O9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="N29:P31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="I26:K28"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="E29:H32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:H28"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="L23:V25"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="J23:K25"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="P9:V9"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16EF943-EE50-404E-A508-AD1F4AD09131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C4BBF-0CBE-4A15-889D-ABB06F7FA149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pre-Store Inspection Form" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Pre-Store Inspection Form'!$A$1:$V$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Pre-Store Inspection Form'!$A$1:$V$37</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Quantity</t>
   </si>
@@ -165,13 +165,16 @@
   <si>
     <t xml:space="preserve">Production Instruction
 (PI) No. </t>
+  </si>
+  <si>
+    <t>Bhushan Dessai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +229,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -920,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -976,371 +985,383 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,10 +1670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:V9"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,11 +1681,11 @@
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
@@ -1684,711 +1705,711 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="50" t="s">
+      <c r="F4" s="140"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="50" t="s">
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="55"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="62" t="s">
+      <c r="F5" s="128"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="62" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="55"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="71" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="72"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="80"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="53" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53" t="s">
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="54"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87" t="s">
+      <c r="B9" s="140"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="89"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="143"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="96"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="118"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="96"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="118"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="104"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="126"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="33"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="91"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="108"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="124"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="111"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="111"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="111"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="111"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="111"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="37"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="111"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="111"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
     </row>
     <row r="22" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="115"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="41"/>
     </row>
     <row r="23" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="115" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34" t="s">
+      <c r="F23" s="115"/>
+      <c r="G23" s="115" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="34" t="s">
+      <c r="J23" s="115"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="37"/>
-    </row>
-    <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="3"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="116"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="38"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="98"/>
     </row>
     <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="117"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="90"/>
     </row>
     <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="119" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="119" t="s">
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="120"/>
-      <c r="K26" s="122"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -2397,52 +2418,52 @@
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="38"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="98"/>
       <c r="L27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="S27" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="29"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="51"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="39"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="101"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="6"/>
       <c r="S28" s="17"/>
@@ -2451,24 +2472,24 @@
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="122"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="23" t="s">
+      <c r="N29" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="32"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="89"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="8"/>
       <c r="S29" s="12"/>
@@ -2476,53 +2497,53 @@
       <c r="U29" s="12"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="38"/>
+    <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="110"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="98"/>
       <c r="L30" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="32"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="89"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="23" t="s">
+      <c r="S30" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="32"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="89"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="38"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="98"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="33"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="91"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -2530,124 +2551,150 @@
       <c r="U31" s="15"/>
       <c r="V31" s="16"/>
     </row>
-    <row r="32" spans="1:22" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="126"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="130"/>
-    </row>
-    <row r="33" spans="1:24" s="139" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131" t="s">
+    <row r="32" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="110"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="20"/>
+    </row>
+    <row r="33" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="111"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="100"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="93"/>
+    </row>
+    <row r="34" spans="1:24" s="29" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="132" t="s">
+      <c r="B34" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="132" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="132" t="s">
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="116"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="134" t="s">
+      <c r="J34" s="55"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="136" t="s">
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="137"/>
-      <c r="V33" s="138"/>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="88"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="140"/>
-      <c r="X34" s="140"/>
-    </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="140"/>
-      <c r="X35" s="140"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="81">
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="A3:S3"/>
     <mergeCell ref="C8:K8"/>
@@ -2680,55 +2727,58 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="E29:H32"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:D28"/>
     <mergeCell ref="E26:H28"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="E29:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
     <mergeCell ref="A13:V13"/>
     <mergeCell ref="A19:V19"/>
     <mergeCell ref="A17:V17"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="Q34:V34"/>
     <mergeCell ref="S27:V27"/>
     <mergeCell ref="S30:V30"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="N29:P31"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="I26:K28"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="I29:K32"/>
     <mergeCell ref="I33:K33"/>
-    <mergeCell ref="N29:P31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="I26:K28"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="P6:V6"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="P8:V8"/>
     <mergeCell ref="A7:V7"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A34:V34"/>
     <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A36:V36"/>
     <mergeCell ref="A21:V21"/>
     <mergeCell ref="A22:V22"/>
     <mergeCell ref="A20:V20"/>
     <mergeCell ref="A23:B25"/>
     <mergeCell ref="N26:P28"/>
-    <mergeCell ref="I29:K32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="L34:P34"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="L9:O9"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;10FQP-QC02-03AC&amp;11
 &amp;"-,Italic"&amp;8Eff. Date:01/12/2023</oddHeader>

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C4BBF-0CBE-4A15-889D-ABB06F7FA149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AA1E77-FDBF-4E53-916A-CD919F9DEABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -925,11 +925,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -985,12 +996,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,6 +1026,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,12 +1212,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,6 +1237,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,7 +1368,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1705,711 +1731,711 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="131" t="s">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="131"/>
-      <c r="V3" s="21"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="139" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="68" t="s">
+      <c r="F4" s="139"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="68" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="69"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="23"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="36" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="71" t="s">
+      <c r="F5" s="127"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="71" t="s">
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="23"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="21"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="26" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="80"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="79"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="133" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="62" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62" t="s">
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="65" t="s">
+      <c r="B9" s="139"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="143"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="142"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="119" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="117"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="119" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="117"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="120" t="s">
+      <c r="B12" s="129"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="126"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="125"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="91"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="90"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="124"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="123"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="37"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="36"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="37"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="36"/>
     </row>
     <row r="22" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="41"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="40"/>
     </row>
     <row r="23" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="115" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="114" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115" t="s">
+      <c r="F23" s="114"/>
+      <c r="G23" s="114" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="115" t="s">
+      <c r="J23" s="114"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="116"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="115"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="144"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="98"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="95"/>
     </row>
     <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="100"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="90"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="89"/>
     </row>
     <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="94" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="94" t="s">
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="48" t="s">
+      <c r="N26" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -2418,52 +2444,52 @@
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="98"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="95"/>
       <c r="L27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="51"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="50"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="6"/>
       <c r="S28" s="17"/>
@@ -2472,24 +2498,24 @@
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="96"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="45" t="s">
+      <c r="N29" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="89"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="88"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="8"/>
       <c r="S29" s="12"/>
@@ -2498,52 +2524,52 @@
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="98"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="95"/>
       <c r="L30" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="89"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="88"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="45" t="s">
+      <c r="S30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="89"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="88"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="98"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="95"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="91"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="90"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -2552,146 +2578,146 @@
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="20"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="93"/>
     </row>
     <row r="33" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="99" t="s">
+      <c r="A33" s="149"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="93"/>
-    </row>
-    <row r="34" spans="1:24" s="29" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="J33" s="144"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="98"/>
+    </row>
+    <row r="34" spans="1:24" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="54" t="s">
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="54" t="s">
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="57" t="s">
+      <c r="J34" s="54"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="86" t="s">
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="88"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="87"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -2745,11 +2771,11 @@
     <mergeCell ref="S30:V30"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="N29:P31"/>
-    <mergeCell ref="Q33:V33"/>
     <mergeCell ref="I26:K28"/>
-    <mergeCell ref="L33:P33"/>
     <mergeCell ref="I29:K32"/>
     <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="Q32:V33"/>
     <mergeCell ref="P6:V6"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="B6:N6"/>

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AA1E77-FDBF-4E53-916A-CD919F9DEABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F006AC-C44B-4E26-AB84-590A3359B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Quantity</t>
   </si>
@@ -165,9 +165,6 @@
   <si>
     <t xml:space="preserve">Production Instruction
 (PI) No. </t>
-  </si>
-  <si>
-    <t>Bhushan Dessai</t>
   </si>
 </sst>
 </file>
@@ -940,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1239,6 +1236,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1263,6 +1269,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1281,6 +1296,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,6 +1346,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1366,27 +1393,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1698,22 +1704,22 @@
   </sheetPr>
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" style="1" customWidth="1"/>
@@ -1783,29 +1789,29 @@
       <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="130" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="130"/>
+      <c r="U3" s="140"/>
       <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,10 +1821,10 @@
       <c r="B4" s="62"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="139"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="62"/>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
@@ -1851,7 +1857,7 @@
       <c r="E5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="127"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="59"/>
       <c r="H5" s="65"/>
       <c r="I5" s="65"/>
@@ -1943,17 +1949,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="76"/>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="134"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="144"/>
       <c r="L8" s="61" t="s">
         <v>1</v>
       </c>
@@ -1971,32 +1977,32 @@
       <c r="V8" s="63"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="147"/>
       <c r="L9" s="64" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="142"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="152"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
@@ -2004,88 +2010,88 @@
       <c r="AB9" s="21"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="118" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="117"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="124"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="118" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="117"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="124"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="119" t="s">
+      <c r="B12" s="136"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="125"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="132"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -2114,28 +2120,28 @@
       <c r="V13" s="90"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="123"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="130"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
@@ -2334,37 +2340,37 @@
         <v>27</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="137" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114" t="s">
+      <c r="F23" s="121"/>
+      <c r="G23" s="121" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="114" t="s">
+      <c r="J23" s="121"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="115"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="122"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="29"/>
       <c r="E24" s="7"/>
       <c r="F24" s="30"/>
@@ -2388,7 +2394,7 @@
     <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="97"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="97"/>
@@ -2410,20 +2416,20 @@
       <c r="V25" s="89"/>
     </row>
     <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="114" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="91" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="92"/>
-      <c r="D26" s="111"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="91" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="92"/>
       <c r="G26" s="92"/>
-      <c r="H26" s="111"/>
+      <c r="H26" s="117"/>
       <c r="I26" s="91" t="s">
         <v>21</v>
       </c>
@@ -2444,14 +2450,14 @@
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="94"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="112"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="94"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="112"/>
+      <c r="H27" s="118"/>
       <c r="I27" s="94"/>
       <c r="J27" s="30"/>
       <c r="K27" s="95"/>
@@ -2474,14 +2480,14 @@
       <c r="V27" s="50"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="96"/>
       <c r="C28" s="97"/>
-      <c r="D28" s="113"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="96"/>
       <c r="F28" s="97"/>
       <c r="G28" s="97"/>
-      <c r="H28" s="113"/>
+      <c r="H28" s="119"/>
       <c r="I28" s="96"/>
       <c r="J28" s="97"/>
       <c r="K28" s="98"/>
@@ -2498,14 +2504,14 @@
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="91"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="111"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="91"/>
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
-      <c r="H29" s="111"/>
+      <c r="H29" s="117"/>
       <c r="I29" s="91"/>
       <c r="J29" s="92"/>
       <c r="K29" s="93"/>
@@ -2524,14 +2530,14 @@
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="148"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="94"/>
       <c r="C30" s="99"/>
-      <c r="D30" s="112"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="94"/>
       <c r="F30" s="99"/>
       <c r="G30" s="99"/>
-      <c r="H30" s="112"/>
+      <c r="H30" s="118"/>
       <c r="I30" s="94"/>
       <c r="J30" s="99"/>
       <c r="K30" s="95"/>
@@ -2554,14 +2560,14 @@
       <c r="V30" s="88"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="94"/>
       <c r="C31" s="99"/>
-      <c r="D31" s="112"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="94"/>
       <c r="F31" s="99"/>
       <c r="G31" s="99"/>
-      <c r="H31" s="112"/>
+      <c r="H31" s="118"/>
       <c r="I31" s="94"/>
       <c r="J31" s="99"/>
       <c r="K31" s="95"/>
@@ -2577,50 +2583,48 @@
       <c r="U31" s="15"/>
       <c r="V31" s="16"/>
     </row>
-    <row r="32" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
+    <row r="32" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="112"/>
       <c r="B32" s="94"/>
       <c r="C32" s="99"/>
-      <c r="D32" s="112"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="94"/>
       <c r="F32" s="99"/>
       <c r="G32" s="99"/>
-      <c r="H32" s="112"/>
+      <c r="H32" s="118"/>
       <c r="I32" s="94"/>
       <c r="J32" s="99"/>
       <c r="K32" s="95"/>
-      <c r="L32" s="100"/>
+      <c r="L32" s="103"/>
       <c r="M32" s="92"/>
       <c r="N32" s="92"/>
       <c r="O32" s="92"/>
       <c r="P32" s="93"/>
-      <c r="Q32" s="100"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="92"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
       <c r="U32" s="92"/>
       <c r="V32" s="93"/>
     </row>
-    <row r="33" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="149"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="143" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="144"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="101"/>
+    <row r="33" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="113"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="104"/>
       <c r="M33" s="97"/>
       <c r="N33" s="97"/>
       <c r="O33" s="97"/>
       <c r="P33" s="98"/>
-      <c r="Q33" s="101"/>
+      <c r="Q33" s="104"/>
       <c r="R33" s="97"/>
       <c r="S33" s="97"/>
       <c r="T33" s="97"/>

--- a/backend/templates/pre-store-form.xlsx
+++ b/backend/templates/pre-store-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F006AC-C44B-4E26-AB84-590A3359B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1D4C8-160D-4782-BD12-191D2D68554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1026,8 +1026,299 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1035,365 +1326,53 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,7 +1684,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,202 +1716,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="140" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="140"/>
+      <c r="U3" s="30"/>
       <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="148" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="67" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="67" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="118"/>
       <c r="W4" s="21"/>
     </row>
     <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="35" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="70" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="70" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="60"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="144"/>
       <c r="W5" s="21"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="80"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="117"/>
       <c r="O6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="79"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="116"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="84"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="122"/>
       <c r="W7" s="25"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
@@ -1945,64 +1924,64 @@
       <c r="AF7" s="21"/>
     </row>
     <row r="8" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="142" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="61" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="63"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="118"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="64" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="152"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="60"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
@@ -2010,438 +1989,438 @@
       <c r="AB9" s="21"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="125" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="124"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="69"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="125" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="124"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="69"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="126" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="132"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="90"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="100"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="130"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="74"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="77"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="77"/>
     </row>
     <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="77"/>
     </row>
     <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="77"/>
     </row>
     <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="77"/>
     </row>
     <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="36"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="77"/>
     </row>
     <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="36"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="77"/>
     </row>
     <row r="22" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="40"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="133"/>
     </row>
     <row r="23" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="137" t="s">
+      <c r="B23" s="135"/>
+      <c r="C23" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121" t="s">
+      <c r="F23" s="61"/>
+      <c r="G23" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="121" t="s">
+      <c r="J23" s="61"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="122"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="64"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="138"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="29"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="3"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="95"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="65"/>
     </row>
     <row r="25" spans="1:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="139"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="89"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="67"/>
     </row>
     <row r="26" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="91" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="91" t="s">
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="111"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="47" t="s">
+      <c r="N26" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -2450,52 +2429,52 @@
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="95"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="107"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="S27" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="50"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="107"/>
     </row>
     <row r="28" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="140"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="6"/>
       <c r="S28" s="17"/>
@@ -2504,24 +2483,24 @@
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="111"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="44" t="s">
+      <c r="N29" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="88"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="109"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="8"/>
       <c r="S29" s="12"/>
@@ -2530,52 +2509,52 @@
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="95"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="7" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="88"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="109"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="44" t="s">
+      <c r="S30" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="88"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="109"/>
     </row>
     <row r="31" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="95"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="90"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -2584,147 +2563,212 @@
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="93"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="111"/>
     </row>
     <row r="33" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="98"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="81"/>
     </row>
     <row r="34" spans="1:24" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="53" t="s">
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="53" t="s">
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="56" t="s">
+      <c r="J34" s="66"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="85" t="s">
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="87"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="105"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
+      <c r="V36" s="129"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="A21:V21"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="A20:V20"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="N26:P28"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="Q34:V34"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="N29:P31"/>
+    <mergeCell ref="I26:K28"/>
+    <mergeCell ref="I29:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="Q32:V33"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:H28"/>
+    <mergeCell ref="B29:D32"/>
+    <mergeCell ref="E29:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="L23:V25"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="J23:K25"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A16:V16"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="A3:S3"/>
     <mergeCell ref="C8:K8"/>
@@ -2741,71 +2785,6 @@
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="P9:V9"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="L23:V25"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="J23:K25"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:H28"/>
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="E29:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A17:V17"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Q34:V34"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="N29:P31"/>
-    <mergeCell ref="I26:K28"/>
-    <mergeCell ref="I29:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L32:P33"/>
-    <mergeCell ref="Q32:V33"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A36:V36"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A20:V20"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="N26:P28"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.59055118110236227" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
